--- a/biology/Zoologie/Barbier_commun/Barbier_commun.xlsx
+++ b/biology/Zoologie/Barbier_commun/Barbier_commun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthias anthias
 Le barbier commun, Anthias anthias, est habituellement classé parmi les Serranidés, vaste famille qui regroupe les mérous au sens large du terme. En raison de sa petite taille et d'un certain nombre de caractères morphologiques particuliers, il est parfois placé dans une famille à part: les Anthiidés.
